--- a/file import/jaringan-opd.xlsx
+++ b/file import/jaringan-opd.xlsx
@@ -40,41 +40,35 @@
     <t>kode_alat</t>
   </si>
   <si>
-    <t>ACCESS POINT</t>
-  </si>
-  <si>
-    <t>UBIQUITY</t>
-  </si>
-  <si>
-    <t>UBIQUITY/UNIFY</t>
-  </si>
-  <si>
-    <t>BAIK</t>
-  </si>
-  <si>
-    <t>BKPSDM</t>
-  </si>
-  <si>
-    <t>AP-BKPSDM-001</t>
+    <t>FIREWALL</t>
+  </si>
+  <si>
+    <t>SOPHOS</t>
+  </si>
+  <si>
+    <t>XG 450</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>baik</t>
+  </si>
+  <si>
+    <t>dinas komunikasi dan informatika</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -96,7 +90,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -111,20 +105,36 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -431,12 +441,12 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="55.140625" customWidth="1"/>
+    <col min="1" max="1" width="34.7109375" customWidth="1"/>
     <col min="2" max="5" width="15.5703125" customWidth="1"/>
     <col min="6" max="6" width="13.5703125" customWidth="1"/>
     <col min="7" max="7" width="19" customWidth="1"/>
@@ -470,23 +480,23 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="E2" s="2" t="s">
         <v>11</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
